--- a/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2595607028070084</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1803628305797026</v>
+        <v>0.1803628305797027</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3638857667798343</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3256473352445008</v>
+        <v>0.3305072038059787</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2433841642546798</v>
+        <v>0.2397633151569247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2602376308146714</v>
+        <v>0.2595524937872964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1943694148461428</v>
+        <v>0.1959040896163455</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.319158210783405</v>
+        <v>0.3175787575834718</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.235771006099916</v>
+        <v>0.2362410593223308</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2269890016619629</v>
+        <v>0.2207351334517256</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1577265671162408</v>
+        <v>0.1589925148908373</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3350442542014367</v>
+        <v>0.3334464047630067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2482449977330209</v>
+        <v>0.2483425549372999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2528718769240986</v>
+        <v>0.2512995186664759</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1808405806368223</v>
+        <v>0.1848670244364438</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4148010759505892</v>
+        <v>0.4156955547285432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3189339343692607</v>
+        <v>0.3193356021922683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.341683792922478</v>
+        <v>0.3432364286299617</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2718637550466739</v>
+        <v>0.2728050866341797</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4015796274781941</v>
+        <v>0.4017244787174539</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3086231455482232</v>
+        <v>0.3083929087986502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2994293586786435</v>
+        <v>0.2956224879348632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2069102738927758</v>
+        <v>0.2105404354693924</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3940641657110017</v>
+        <v>0.394486544418645</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3017363593624768</v>
+        <v>0.3039656507454095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3064111979781989</v>
+        <v>0.3089363027023918</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2290684033725515</v>
+        <v>0.2293974943105076</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2618020840972435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1656899145927799</v>
+        <v>0.16568991459278</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.327730904506677</v>
@@ -821,7 +821,7 @@
         <v>0.2653168568171088</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.175728477680204</v>
+        <v>0.1757284776802039</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3144159241227107</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2662158322125215</v>
+        <v>0.2662930232779882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2843084876065473</v>
+        <v>0.2876211643471966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2311003933061473</v>
+        <v>0.2314849607800536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1422763423536686</v>
+        <v>0.1413039930795344</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2932086449142247</v>
+        <v>0.2953350957004323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2689440192792762</v>
+        <v>0.2714713105423492</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2358700986552174</v>
+        <v>0.2365272461581478</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1556459093946436</v>
+        <v>0.1560710552430339</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2898260918971575</v>
+        <v>0.2888165787379143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2862719555314531</v>
+        <v>0.2860274391058439</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2415758681943733</v>
+        <v>0.2426697709965737</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1550825031797205</v>
+        <v>0.1536470838180667</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3373002279417157</v>
+        <v>0.33998474294838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3522326365362996</v>
+        <v>0.3531817038537132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2937609525639289</v>
+        <v>0.294693880931622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.19641628982816</v>
+        <v>0.1953790746941481</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3624116263215871</v>
+        <v>0.3615141386060389</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3304712711700982</v>
+        <v>0.332319977130654</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2950667165777515</v>
+        <v>0.2979513070937291</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1955737424902448</v>
+        <v>0.1968036758744787</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3370183288752119</v>
+        <v>0.3385899001465706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3319420730615277</v>
+        <v>0.3358919344533569</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2856035763356454</v>
+        <v>0.2838702007277904</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1884301041904537</v>
+        <v>0.1879816074852914</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3194510966497823</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2265306340151595</v>
+        <v>0.2265306340151596</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3391131025472968</v>
@@ -969,7 +969,7 @@
         <v>0.3261497958496274</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.23258454368837</v>
+        <v>0.2325845436883699</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.315156956116757</v>
+        <v>0.310215147854065</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2704178938736333</v>
+        <v>0.2717642571284518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.291298557406741</v>
+        <v>0.2912380161265048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2022593590915604</v>
+        <v>0.2039068745586053</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2886672772962025</v>
+        <v>0.289391102769043</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2693584782380903</v>
+        <v>0.2647504055014033</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2852735194064028</v>
+        <v>0.2794702191887011</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1979110490077633</v>
+        <v>0.2002555988716956</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3082885680164429</v>
+        <v>0.3109413567274615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2804021107895375</v>
+        <v>0.2813351521877348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.297085409011471</v>
+        <v>0.2974512854503141</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2106034443769846</v>
+        <v>0.2124699307689683</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4005820278866956</v>
+        <v>0.3956200398237359</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3493503760452463</v>
+        <v>0.3482247572207561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3747096932660515</v>
+        <v>0.3745589151001797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2756533457146567</v>
+        <v>0.2780677153211626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3632649028605109</v>
+        <v>0.3647653839626311</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.343546208899137</v>
+        <v>0.3393255447467294</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3641495922064558</v>
+        <v>0.3597758125511854</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2552504920473956</v>
+        <v>0.2579221570680736</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3656126221203727</v>
+        <v>0.3672657665488069</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3318421929476557</v>
+        <v>0.3327623915224123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3559674149011997</v>
+        <v>0.3525039532707251</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2550124879279801</v>
+        <v>0.2581676536300529</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2292990772820239</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1566346418892708</v>
+        <v>0.1566346418892709</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2470193162312689</v>
+        <v>0.2472460732860665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2617689580038636</v>
+        <v>0.2595165662918913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2043483367083564</v>
+        <v>0.2006545708223602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1290623184594915</v>
+        <v>0.1260285968964339</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2541777491580086</v>
+        <v>0.253390444727649</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2533997969174107</v>
+        <v>0.2522572724993419</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1973792284504186</v>
+        <v>0.1997373692471318</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1408486516385676</v>
+        <v>0.1408448293405243</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.26079788953741</v>
+        <v>0.2614803419871718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2658743891645258</v>
+        <v>0.2618369760502196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2082204018279719</v>
+        <v>0.2092150443828187</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.141769318017241</v>
+        <v>0.1417518360363683</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3138365536352508</v>
+        <v>0.3140530849642899</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3243365836729636</v>
+        <v>0.3247309368890253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2674949113166712</v>
+        <v>0.2650101290202418</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1792857754192381</v>
+        <v>0.1809452840644647</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3178541861339488</v>
+        <v>0.3194111677373329</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3097355919029458</v>
+        <v>0.3095707246189368</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2553997059684944</v>
+        <v>0.256357615643222</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1795311665516666</v>
+        <v>0.1833505955746815</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.304651044388684</v>
+        <v>0.3074333995218138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3101010970900649</v>
+        <v>0.3096709908415164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2499315904274032</v>
+        <v>0.2497665254640768</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.175003089759595</v>
+        <v>0.174047752268475</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>155606</v>
+        <v>157929</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>147479</v>
+        <v>145285</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>136623</v>
+        <v>136263</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128193</v>
+        <v>129205</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>171740</v>
+        <v>170890</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>149903</v>
+        <v>150202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>123564</v>
+        <v>120160</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>111273</v>
+        <v>112166</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>340385</v>
+        <v>338762</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>308259</v>
+        <v>308380</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>270410</v>
+        <v>268729</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>246850</v>
+        <v>252346</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>198207</v>
+        <v>198635</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>193258</v>
+        <v>193502</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>179382</v>
+        <v>180197</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>179303</v>
+        <v>179923</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>216092</v>
+        <v>216170</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>196223</v>
+        <v>196077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>162998</v>
+        <v>160926</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>145971</v>
+        <v>148532</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>400346</v>
+        <v>400775</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>374682</v>
+        <v>377450</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>327663</v>
+        <v>330363</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>312681</v>
+        <v>313130</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>192242</v>
+        <v>192298</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>246233</v>
+        <v>249102</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>188658</v>
+        <v>188972</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>144578</v>
+        <v>143590</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>235806</v>
+        <v>237516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>241506</v>
+        <v>243776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>204351</v>
+        <v>204921</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>163083</v>
+        <v>163529</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>442377</v>
+        <v>440836</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>505000</v>
+        <v>504569</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>406504</v>
+        <v>408345</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>320085</v>
+        <v>317122</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>243574</v>
+        <v>245513</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>305061</v>
+        <v>305883</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>239811</v>
+        <v>240572</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>199594</v>
+        <v>198540</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>291461</v>
+        <v>290739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>296757</v>
+        <v>298417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>255638</v>
+        <v>258137</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>204919</v>
+        <v>206208</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>514409</v>
+        <v>516808</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>585565</v>
+        <v>592533</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>480591</v>
+        <v>477674</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>388913</v>
+        <v>387987</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>171461</v>
+        <v>168772</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>171737</v>
+        <v>172592</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>160319</v>
+        <v>160286</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>156550</v>
+        <v>157826</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>168757</v>
+        <v>169181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>182491</v>
+        <v>179369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>165384</v>
+        <v>162020</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>157408</v>
+        <v>159272</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>347952</v>
+        <v>350946</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>368050</v>
+        <v>369275</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>335736</v>
+        <v>336149</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>330511</v>
+        <v>333440</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>217936</v>
+        <v>215236</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>221865</v>
+        <v>221151</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>206225</v>
+        <v>206142</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>213358</v>
+        <v>215227</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>212368</v>
+        <v>213245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>232753</v>
+        <v>229893</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>211111</v>
+        <v>208576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>203012</v>
+        <v>205137</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>412651</v>
+        <v>414517</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>435570</v>
+        <v>436778</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>402278</v>
+        <v>398364</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>400205</v>
+        <v>405156</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>175307</v>
+        <v>175468</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>210662</v>
+        <v>208849</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>157887</v>
+        <v>155033</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>122191</v>
+        <v>119319</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>206900</v>
+        <v>206259</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>236473</v>
+        <v>235407</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>173070</v>
+        <v>175138</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>151577</v>
+        <v>151573</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>397374</v>
+        <v>398414</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>462080</v>
+        <v>455063</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>343455</v>
+        <v>345095</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>286789</v>
+        <v>286754</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>222726</v>
+        <v>222880</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>261014</v>
+        <v>261331</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>206676</v>
+        <v>204756</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169741</v>
+        <v>171312</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>258733</v>
+        <v>260000</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>289046</v>
+        <v>288892</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>223945</v>
+        <v>224785</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>193206</v>
+        <v>197316</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>464193</v>
+        <v>468432</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>538945</v>
+        <v>538197</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>412256</v>
+        <v>411984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>354019</v>
+        <v>352086</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
     </row>
     <row r="24">
